--- a/reports/_reports finali/report_T1_T2_immagini.xlsx
+++ b/reports/_reports finali/report_T1_T2_immagini.xlsx
@@ -1,26 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Campus\materiale tesi\progetto_klara_valerio\INPH_2\reports\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Campus\materiale tesi\progetto_klara_valerio\INPH_2\reports\_reports finali\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85EDC01D-3183-47CE-A08F-82D1AE19898D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90321B8C-8FC8-4906-858A-77A22A4E24ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="60">
   <si>
     <t>model</t>
   </si>
@@ -123,12 +136,90 @@
   <si>
     <t>start with : resnet18</t>
   </si>
+  <si>
+    <t>Semplicità</t>
+  </si>
+  <si>
+    <t>Commenti</t>
+  </si>
+  <si>
+    <t>Colonna3</t>
+  </si>
+  <si>
+    <t>Colonna4</t>
+  </si>
+  <si>
+    <t>Colonna5</t>
+  </si>
+  <si>
+    <t>Colonna6</t>
+  </si>
+  <si>
+    <t>Colonna7</t>
+  </si>
+  <si>
+    <t>Modello</t>
+  </si>
+  <si>
+    <t>Acc</t>
+  </si>
+  <si>
+    <t>F-Score</t>
+  </si>
+  <si>
+    <t>F-score</t>
+  </si>
+  <si>
+    <t>EffincentNet-b0</t>
+  </si>
+  <si>
+    <t>EfficentNet-b1</t>
+  </si>
+  <si>
+    <t>ResNet-10</t>
+  </si>
+  <si>
+    <t>ResNet-18</t>
+  </si>
+  <si>
+    <t>ResNet-18-Fc</t>
+  </si>
+  <si>
+    <t>ResNet-34</t>
+  </si>
+  <si>
+    <t>ResNet-50</t>
+  </si>
+  <si>
+    <t>ResNet-101</t>
+  </si>
+  <si>
+    <t>SeResNet-50</t>
+  </si>
+  <si>
+    <t>SeResNet-101</t>
+  </si>
+  <si>
+    <t>SeResNext-50</t>
+  </si>
+  <si>
+    <t>SeResNext-101</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SeNet-154</t>
+  </si>
+  <si>
+    <t>MRI-T1 weighted</t>
+  </si>
+  <si>
+    <t>MRI-T2 Flair</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -144,8 +235,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -158,8 +257,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor theme="4" tint="0.59999389629810485"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -182,50 +299,256 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="4">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
     <dxf>
       <font>
         <b/>
@@ -325,8 +648,42 @@
         <horizontal/>
       </border>
     </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF800000"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -338,11 +695,4203 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="it-IT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Which CNN for the model?</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.13862289739173364"/>
+          <c:y val="0.17616776222290706"/>
+          <c:w val="0.81709435128643959"/>
+          <c:h val="0.60915233268208324"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$I$51</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Semplicità</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="35000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent1">
+                      <a:shade val="51000"/>
+                      <a:satMod val="130000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="80000">
+                    <a:schemeClr val="accent1">
+                      <a:shade val="93000"/>
+                      <a:satMod val="130000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent1">
+                      <a:shade val="94000"/>
+                      <a:satMod val="135000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="16200000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="35000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:scene3d>
+                <a:camera prst="orthographicFront">
+                  <a:rot lat="0" lon="0" rev="0"/>
+                </a:camera>
+                <a:lightRig rig="threePt" dir="t">
+                  <a:rot lat="0" lon="0" rev="1200000"/>
+                </a:lightRig>
+              </a:scene3d>
+              <a:sp3d>
+                <a:bevelT w="63500" h="25400"/>
+              </a:sp3d>
+            </c:spPr>
+          </c:marker>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:marker>
+              <c:symbol val="circle"/>
+              <c:size val="6"/>
+              <c:spPr>
+                <a:gradFill rotWithShape="1">
+                  <a:gsLst>
+                    <a:gs pos="0">
+                      <a:schemeClr val="accent1">
+                        <a:shade val="51000"/>
+                        <a:satMod val="130000"/>
+                      </a:schemeClr>
+                    </a:gs>
+                    <a:gs pos="80000">
+                      <a:schemeClr val="accent1">
+                        <a:shade val="93000"/>
+                        <a:satMod val="130000"/>
+                      </a:schemeClr>
+                    </a:gs>
+                    <a:gs pos="100000">
+                      <a:schemeClr val="accent1">
+                        <a:shade val="94000"/>
+                        <a:satMod val="135000"/>
+                      </a:schemeClr>
+                    </a:gs>
+                  </a:gsLst>
+                  <a:lin ang="16200000" scaled="0"/>
+                </a:gradFill>
+                <a:ln w="9525" cap="rnd">
+                  <a:solidFill>
+                    <a:schemeClr val="accent1"/>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst>
+                  <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+                    <a:srgbClr val="000000">
+                      <a:alpha val="35000"/>
+                    </a:srgbClr>
+                  </a:outerShdw>
+                </a:effectLst>
+                <a:scene3d>
+                  <a:camera prst="orthographicFront">
+                    <a:rot lat="0" lon="0" rev="0"/>
+                  </a:camera>
+                  <a:lightRig rig="threePt" dir="t">
+                    <a:rot lat="0" lon="0" rev="1200000"/>
+                  </a:lightRig>
+                </a:scene3d>
+                <a:sp3d>
+                  <a:bevelT w="63500" h="25400"/>
+                </a:sp3d>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:ln w="9525" cap="rnd">
+                <a:solidFill>
+                  <a:srgbClr val="800000"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+                <a:round/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="35000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-A976-4349-AFA7-14C7B8CD3BFD}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US"/>
+                      <a:t>Resnet18</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-A976-4349-AFA7-14C7B8CD3BFD}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US"/>
+                      <a:t>Seresnet50</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-A976-4349-AFA7-14C7B8CD3BFD}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US"/>
+                      <a:t>resnet</a:t>
+                    </a:r>
+                    <a:fld id="{E7C3D744-46CB-4658-B1C3-7FC62DDE977E}" type="YVALUE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[VALORE Y]</a:t>
+                    </a:fld>
+                    <a:r>
+                      <a:rPr lang="en-US"/>
+                      <a:t>0</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000004-A976-4349-AFA7-14C7B8CD3BFD}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US"/>
+                      <a:t>seresnext50</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-A976-4349-AFA7-14C7B8CD3BFD}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US"/>
+                      <a:t>resnet</a:t>
+                    </a:r>
+                    <a:fld id="{6D9289CA-1266-43D4-B576-739F3419506D}" type="YVALUE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[VALORE Y]</a:t>
+                    </a:fld>
+                    <a:r>
+                      <a:rPr lang="en-US"/>
+                      <a:t>4</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000005-A976-4349-AFA7-14C7B8CD3BFD}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US"/>
+                      <a:t>resnet</a:t>
+                    </a:r>
+                    <a:fld id="{7545A955-9F08-4DD3-A62C-46F869A4AB26}" type="YVALUE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[VALORE Y]</a:t>
+                    </a:fld>
+                    <a:r>
+                      <a:rPr lang="en-US"/>
+                      <a:t>0</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000006-A976-4349-AFA7-14C7B8CD3BFD}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="6"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US"/>
+                      <a:t>resnetfc18</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000007-A976-4349-AFA7-14C7B8CD3BFD}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="it-IT"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$H$52:$H$58</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.4001999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.3567</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.3355999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.3335999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.3177000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.302</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.2826</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$I$52:$I$58</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A976-4349-AFA7-14C7B8CD3BFD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="t"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1949352175"/>
+        <c:axId val="1949351343"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1949352175"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="it-IT" b="1"/>
+                  <a:t>Sum F-score T1 network and T2 network alone</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="it-IT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1949351343"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1949351343"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="it-IT" b="1"/>
+                  <a:t>Network computational burden</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="it-IT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1949352175"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="it-IT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="it-IT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.18049781277340329"/>
+          <c:y val="0.15319444444444447"/>
+          <c:w val="0.77627996500437446"/>
+          <c:h val="0.64123468941382322"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Which CNNs for the multimodal model?</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:marker>
+              <c:symbol val="circle"/>
+              <c:size val="5"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="C00000"/>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:ln w="25400" cap="rnd">
+                <a:solidFill>
+                  <a:srgbClr val="C00000"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-C78B-42FF-9DF0-03FAAACF63B8}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US"/>
+                      <a:t>Resnet18</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000009-C78B-42FF-9DF0-03FAAACF63B8}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US"/>
+                      <a:t>Seresnet50</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000F-C78B-42FF-9DF0-03FAAACF63B8}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US"/>
+                      <a:t>Resnet50</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000D-C78B-42FF-9DF0-03FAAACF63B8}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US"/>
+                      <a:t>Seresnext50</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000E-C78B-42FF-9DF0-03FAAACF63B8}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US"/>
+                      <a:t>Resnet34</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000B-C78B-42FF-9DF0-03FAAACF63B8}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US"/>
+                      <a:t>Resnet10</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000A-C78B-42FF-9DF0-03FAAACF63B8}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="6"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US"/>
+                      <a:t>Resnetfc18</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000C-C78B-42FF-9DF0-03FAAACF63B8}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="it-IT"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$I$52:$I$58</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$H$52:$H$58</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.4001999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.3567</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.3355999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.3335999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.3177000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.302</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.2826</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-C78B-42FF-9DF0-03FAAACF63B8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1639205135"/>
+        <c:axId val="1639205967"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1639205135"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="it-IT" sz="800" b="1"/>
+                  <a:t>Network</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="it-IT" sz="800" b="1" baseline="0"/>
+                  <a:t> computational burden</a:t>
+                </a:r>
+                <a:endParaRPr lang="it-IT" sz="800" b="1"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="it-IT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1639205967"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="1"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1639205967"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="800" b="1"/>
+                  <a:t>Sum F-score T1 network and T2 network alone</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="5.8333333333333334E-2"/>
+              <c:y val="0.12047827354913972"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="it-IT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1639205135"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="it-IT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="it-IT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.15384643059629774"/>
+          <c:y val="0.17646513782719486"/>
+          <c:w val="0.79563457253311143"/>
+          <c:h val="0.64708107710484164"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Which CNNs for the multimodal model?</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:marker>
+              <c:symbol val="circle"/>
+              <c:size val="5"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="FF0000"/>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-9249-4177-8353-A4CF676F5349}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:marker>
+              <c:symbol val="circle"/>
+              <c:size val="5"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="accent1"/>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:ln w="25400" cap="rnd">
+                <a:noFill/>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000004-9249-4177-8353-A4CF676F5349}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-6.8143270728689448E-2"/>
+                  <c:y val="-4.3386442182180948E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US"/>
+                      <a:t>Resnet18</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000005-9249-4177-8353-A4CF676F5349}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US"/>
+                      <a:t>Seresnet50</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000A-9249-4177-8353-A4CF676F5349}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US"/>
+                      <a:t>Resnet50</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000008-9249-4177-8353-A4CF676F5349}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US"/>
+                      <a:t>Seresnext50</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000009-9249-4177-8353-A4CF676F5349}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US"/>
+                      <a:t>Resnet34</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000006-9249-4177-8353-A4CF676F5349}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US"/>
+                      <a:t>Resnet10</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000004-9249-4177-8353-A4CF676F5349}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="6"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-7.6855594985009199E-2"/>
+                  <c:y val="-3.8815849376294072E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US"/>
+                      <a:t>Resnetfc18</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000007-9249-4177-8353-A4CF676F5349}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="it-IT"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$N$34:$N$46</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$M$34:$M$46</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.5076432820000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.4348366299999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.487362788</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.424099564</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.4513804269999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.5113391679999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.484031171</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-9249-4177-8353-A4CF676F5349}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1916591567"/>
+        <c:axId val="1916582415"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1916591567"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="it-IT" b="1"/>
+                  <a:t>Network computational burden</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="it-IT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1916582415"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="1"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1916582415"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="it-IT" b="1"/>
+                  <a:t>Sum Accuracy T1 network</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="it-IT" b="1" baseline="0"/>
+                  <a:t> and T2 network alone</a:t>
+                </a:r>
+                <a:endParaRPr lang="it-IT" b="1"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="it-IT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1916591567"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="it-IT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="343">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>626302</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>173277</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>323589</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>98121</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Grafico 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2589ECBA-3F9F-EC40-19D3-86B16C58FFD0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>603956</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>175127</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>17913</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>162008</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Grafico 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1CA4128-40B8-8801-003B-0C1DC28AD471}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>97874</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>51767</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>588284</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>21933</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Grafico 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C654115B-2D04-E1B6-E762-6ECCFB10D9DA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{6F439BAD-EFF7-43D7-88FB-AE1F837A3708}" name="Tabella5" displayName="Tabella5" ref="A1:I18" totalsRowShown="0" headerRowDxfId="2">
-  <autoFilter ref="A1:I18" xr:uid="{6F439BAD-EFF7-43D7-88FB-AE1F837A3708}"/>
-  <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{3251FB07-CE7D-49D9-80A0-E4929FB6B7BB}" name="Colonna1" dataDxfId="3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{6F439BAD-EFF7-43D7-88FB-AE1F837A3708}" name="Tabella5" displayName="Tabella5" ref="A1:O18" totalsRowShown="0" headerRowDxfId="3">
+  <autoFilter ref="A1:O18" xr:uid="{6F439BAD-EFF7-43D7-88FB-AE1F837A3708}"/>
+  <tableColumns count="15">
+    <tableColumn id="1" xr3:uid="{3251FB07-CE7D-49D9-80A0-E4929FB6B7BB}" name="Colonna1" dataDxfId="2"/>
     <tableColumn id="2" xr3:uid="{6694C519-B8C0-41F1-9423-90A71392F7E8}" name="model"/>
     <tableColumn id="3" xr3:uid="{5DD5387B-09B5-49CF-ABE4-EF497AE693FB}" name="mean ACC_T2"/>
     <tableColumn id="4" xr3:uid="{E5FE7992-0A13-46BE-A5DB-D898966D4548}" name="mean ACC_T1"/>
@@ -350,15 +4899,21 @@
     <tableColumn id="6" xr3:uid="{B11FC1F1-7E36-4DAA-8BA0-AC5130A50E16}" name="F-Score T1"/>
     <tableColumn id="7" xr3:uid="{1EF0E748-6FE2-4D33-A463-223783C2C082}" name="sum ACC"/>
     <tableColumn id="8" xr3:uid="{D49C2769-51F0-411F-9454-B4E7AA06683A}" name="sum F score"/>
-    <tableColumn id="9" xr3:uid="{31A8533A-C701-46F9-927F-9E0BCC222108}" name="Colonna2"/>
+    <tableColumn id="9" xr3:uid="{31A8533A-C701-46F9-927F-9E0BCC222108}" name="Commenti"/>
+    <tableColumn id="10" xr3:uid="{0E9BCA5A-F9DA-44AF-8672-80AA930294EA}" name="Colonna2"/>
+    <tableColumn id="11" xr3:uid="{7A329594-6A30-4697-B294-AEA82E0548F5}" name="Colonna3"/>
+    <tableColumn id="12" xr3:uid="{77E70AAC-15B4-4C82-BC34-92D13A02101B}" name="Colonna4"/>
+    <tableColumn id="13" xr3:uid="{5644404C-9C78-42B5-B2F6-AB176F9EFE5C}" name="Colonna5"/>
+    <tableColumn id="14" xr3:uid="{1662C7D5-F676-4E87-A565-BE107AF736F4}" name="Colonna6"/>
+    <tableColumn id="15" xr3:uid="{3B6015E3-281C-44AC-A404-ED3C8A34DA37}" name="Colonna7"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{010A0E7C-D51C-4421-821D-447C09DA534F}" name="Tabella6" displayName="Tabella6" ref="A30:I47" totalsRowShown="0" headerRowDxfId="0">
-  <autoFilter ref="A30:I47" xr:uid="{010A0E7C-D51C-4421-821D-447C09DA534F}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{010A0E7C-D51C-4421-821D-447C09DA534F}" name="Tabella6" displayName="Tabella6" ref="A30:J47" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A30:J47" xr:uid="{010A0E7C-D51C-4421-821D-447C09DA534F}">
     <filterColumn colId="8">
       <filters>
         <filter val="."/>
@@ -368,8 +4923,8 @@
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A34:I46">
     <sortCondition descending="1" ref="H30:H47"/>
   </sortState>
-  <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{F05CC673-AD3B-42ED-8FC6-5E4073A03C15}" name="Colonna1" dataDxfId="1"/>
+  <tableColumns count="10">
+    <tableColumn id="1" xr3:uid="{F05CC673-AD3B-42ED-8FC6-5E4073A03C15}" name="Colonna1" dataDxfId="0"/>
     <tableColumn id="2" xr3:uid="{02DE082E-9FF7-4546-878A-F0467908DAB7}" name="model"/>
     <tableColumn id="3" xr3:uid="{3EB4CF2E-5E8F-43F7-9012-528C859B9B92}" name="mean ACC_T2"/>
     <tableColumn id="4" xr3:uid="{7168EF80-2430-45AA-8929-883415BEB2CD}" name="mean ACC_T1"/>
@@ -378,6 +4933,7 @@
     <tableColumn id="7" xr3:uid="{A26C8E71-54BF-4F59-BD0E-FD6CFC37B932}" name="sum ACC"/>
     <tableColumn id="8" xr3:uid="{FF5C345E-BE12-4B3D-A8D3-757EF2148F2D}" name="sum F score"/>
     <tableColumn id="9" xr3:uid="{2BF4910B-D689-45B7-9A98-7649CB1FB750}" name="Colonna2"/>
+    <tableColumn id="10" xr3:uid="{E94E55C8-1D61-41A9-9E69-281CDCAE9443}" name="Semplicità"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -704,10 +5260,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L52"/>
+  <dimension ref="A1:P68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="104" workbookViewId="0">
-      <selection activeCell="A55" sqref="A55"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="92" zoomScaleNormal="82" workbookViewId="0">
+      <selection activeCell="A54" sqref="A54:E68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -721,9 +5277,15 @@
     <col min="7" max="7" width="16.6640625" customWidth="1"/>
     <col min="8" max="8" width="17.21875" customWidth="1"/>
     <col min="9" max="9" width="10.6640625" customWidth="1"/>
+    <col min="10" max="10" width="17.109375" customWidth="1"/>
+    <col min="11" max="11" width="19.77734375" customWidth="1"/>
+    <col min="12" max="12" width="16.44140625" customWidth="1"/>
+    <col min="13" max="13" width="13.21875" customWidth="1"/>
+    <col min="14" max="14" width="15.21875" customWidth="1"/>
+    <col min="15" max="15" width="13.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>31</v>
       </c>
@@ -749,10 +5311,28 @@
         <v>6</v>
       </c>
       <c r="I1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J1" s="12" t="s">
         <v>32</v>
       </c>
+      <c r="K1" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="L1" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="M1" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="N1" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="O1" s="12" t="s">
+        <v>40</v>
+      </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -778,7 +5358,7 @@
         <v>1.2701</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -804,7 +5384,7 @@
         <v>0.68169999999999997</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -829,11 +5409,8 @@
       <c r="H4">
         <v>1.2090000000000001</v>
       </c>
-      <c r="L4">
-        <v>1.3335999999999999</v>
-      </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -861,11 +5438,11 @@
       <c r="I5" t="s">
         <v>27</v>
       </c>
-      <c r="L5">
-        <v>1.3567</v>
+      <c r="P5">
+        <v>1.3335999999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -893,11 +5470,11 @@
       <c r="I6" t="s">
         <v>30</v>
       </c>
-      <c r="L6">
-        <v>1.2826</v>
+      <c r="P6">
+        <v>1.3567</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -925,11 +5502,11 @@
       <c r="I7" t="s">
         <v>27</v>
       </c>
-      <c r="L7">
-        <v>1.4001999999999999</v>
+      <c r="P7">
+        <v>1.2826</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -957,11 +5534,11 @@
       <c r="I8" t="s">
         <v>27</v>
       </c>
-      <c r="L8">
-        <v>1.302</v>
+      <c r="P8">
+        <v>1.4001999999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -989,11 +5566,11 @@
       <c r="I9" t="s">
         <v>27</v>
       </c>
-      <c r="L9">
-        <v>1.3177000000000001</v>
+      <c r="P9">
+        <v>1.302</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1021,11 +5598,11 @@
       <c r="I10" t="s">
         <v>27</v>
       </c>
-      <c r="L10">
-        <v>1.3355999999999999</v>
+      <c r="P10">
+        <v>1.3177000000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1053,8 +5630,11 @@
       <c r="I11" t="s">
         <v>28</v>
       </c>
+      <c r="P11">
+        <v>1.3355999999999999</v>
+      </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1083,7 +5663,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1109,7 +5689,7 @@
         <v>1.0906</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1135,7 +5715,7 @@
         <v>0.98960000000000004</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1164,7 +5744,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1190,7 +5770,7 @@
         <v>1.238</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1219,7 +5799,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1245,7 +5825,7 @@
         <v>0.97350000000000003</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1271,7 +5851,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1297,7 +5877,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>7</v>
       </c>
@@ -1323,7 +5903,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1349,7 +5929,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1375,7 +5955,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>8</v>
       </c>
@@ -1401,7 +5981,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>31</v>
       </c>
@@ -1429,8 +6009,18 @@
       <c r="I30" t="s">
         <v>32</v>
       </c>
+      <c r="J30" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="M30" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="N30" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="O30" s="12"/>
     </row>
-    <row r="31" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>0</v>
       </c>
@@ -1455,8 +6045,11 @@
       <c r="H31">
         <v>1.2701</v>
       </c>
+      <c r="M31">
+        <v>1.304256707</v>
+      </c>
     </row>
-    <row r="32" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>1</v>
       </c>
@@ -1481,8 +6074,11 @@
       <c r="H32">
         <v>0.68169999999999997</v>
       </c>
+      <c r="M32">
+        <v>1.3428336160000001</v>
+      </c>
     </row>
-    <row r="33" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>2</v>
       </c>
@@ -1507,8 +6103,11 @@
       <c r="H33">
         <v>1.2090000000000001</v>
       </c>
+      <c r="M33">
+        <v>1.454459714</v>
+      </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>7</v>
       </c>
@@ -1536,8 +6135,17 @@
       <c r="I34" t="s">
         <v>27</v>
       </c>
+      <c r="J34">
+        <v>2</v>
+      </c>
+      <c r="M34">
+        <v>1.5076432820000001</v>
+      </c>
+      <c r="N34">
+        <v>2</v>
+      </c>
     </row>
-    <row r="35" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>4</v>
       </c>
@@ -1565,8 +6173,11 @@
       <c r="I35" t="s">
         <v>30</v>
       </c>
+      <c r="M35">
+        <v>1.436299548</v>
+      </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>5</v>
       </c>
@@ -1594,8 +6205,17 @@
       <c r="I36" t="s">
         <v>27</v>
       </c>
+      <c r="J36">
+        <v>5</v>
+      </c>
+      <c r="M36">
+        <v>1.4348366299999999</v>
+      </c>
+      <c r="N36">
+        <v>9</v>
+      </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>15</v>
       </c>
@@ -1623,8 +6243,17 @@
       <c r="I37" t="s">
         <v>27</v>
       </c>
+      <c r="J37">
+        <v>5</v>
+      </c>
+      <c r="M37">
+        <v>1.487362788</v>
+      </c>
+      <c r="N37">
+        <v>5</v>
+      </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>3</v>
       </c>
@@ -1652,8 +6281,17 @@
       <c r="I38" t="s">
         <v>27</v>
       </c>
+      <c r="J38">
+        <v>5</v>
+      </c>
+      <c r="M38">
+        <v>1.424099564</v>
+      </c>
+      <c r="N38">
+        <v>7</v>
+      </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>13</v>
       </c>
@@ -1681,8 +6319,17 @@
       <c r="I39" t="s">
         <v>27</v>
       </c>
+      <c r="J39">
+        <v>3</v>
+      </c>
+      <c r="M39">
+        <v>1.4513804269999999</v>
+      </c>
+      <c r="N39">
+        <v>3</v>
+      </c>
     </row>
-    <row r="40" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>9</v>
       </c>
@@ -1710,8 +6357,11 @@
       <c r="I40" t="s">
         <v>28</v>
       </c>
+      <c r="M40">
+        <v>1.4800950500000001</v>
+      </c>
     </row>
-    <row r="41" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>10</v>
       </c>
@@ -1739,8 +6389,11 @@
       <c r="I41" t="s">
         <v>29</v>
       </c>
+      <c r="M41">
+        <v>1.5269509969999999</v>
+      </c>
     </row>
-    <row r="42" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>11</v>
       </c>
@@ -1765,8 +6418,11 @@
       <c r="H42">
         <v>1.0906</v>
       </c>
+      <c r="M42">
+        <v>1.475861096</v>
+      </c>
     </row>
-    <row r="43" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>12</v>
       </c>
@@ -1791,8 +6447,11 @@
       <c r="H43">
         <v>0.98960000000000004</v>
       </c>
+      <c r="M43">
+        <v>1.446324473</v>
+      </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>8</v>
       </c>
@@ -1820,8 +6479,17 @@
       <c r="I44" t="s">
         <v>27</v>
       </c>
+      <c r="J44">
+        <v>1</v>
+      </c>
+      <c r="M44">
+        <v>1.5113391679999999</v>
+      </c>
+      <c r="N44">
+        <v>1</v>
+      </c>
     </row>
-    <row r="45" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>14</v>
       </c>
@@ -1846,8 +6514,11 @@
       <c r="H45">
         <v>1.238</v>
       </c>
+      <c r="M45">
+        <v>1.402671394</v>
+      </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>6</v>
       </c>
@@ -1875,8 +6546,17 @@
       <c r="I46" t="s">
         <v>27</v>
       </c>
+      <c r="J46">
+        <v>2</v>
+      </c>
+      <c r="M46">
+        <v>1.484031171</v>
+      </c>
+      <c r="N46">
+        <v>4</v>
+      </c>
     </row>
-    <row r="47" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>16</v>
       </c>
@@ -1901,18 +6581,351 @@
       <c r="H47">
         <v>0.97350000000000003</v>
       </c>
+      <c r="M47">
+        <v>1.4434961420000001</v>
+      </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G51" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="H51" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="I51" s="11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>33</v>
       </c>
+      <c r="G52" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H52" s="4">
+        <v>1.4001999999999999</v>
+      </c>
+      <c r="I52" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G53" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H53" s="3">
+        <v>1.3567</v>
+      </c>
+      <c r="I53" s="6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A54" s="13"/>
+      <c r="B54" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="C54" s="15"/>
+      <c r="D54" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="E54" s="15"/>
+      <c r="G54" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H54" s="4">
+        <v>1.3355999999999999</v>
+      </c>
+      <c r="I54" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A55" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="B55" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="C55" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="D55" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="E55" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="G55" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H55" s="3">
+        <v>1.3335999999999999</v>
+      </c>
+      <c r="I55" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A56" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="B56" s="19">
+        <v>0.75436664799999997</v>
+      </c>
+      <c r="C56" s="20">
+        <v>0.4733</v>
+      </c>
+      <c r="D56" s="19">
+        <v>0.72149444799999995</v>
+      </c>
+      <c r="E56" s="20">
+        <v>0.61729999999999996</v>
+      </c>
+      <c r="G56" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H56" s="4">
+        <v>1.3177000000000001</v>
+      </c>
+      <c r="I56" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A57" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="B57" s="19">
+        <v>0.68134799999999995</v>
+      </c>
+      <c r="C57" s="20">
+        <v>0.4224</v>
+      </c>
+      <c r="D57" s="19">
+        <v>0.76497647300000005</v>
+      </c>
+      <c r="E57" s="20">
+        <v>0.56720000000000004</v>
+      </c>
+      <c r="G57" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H57" s="3">
+        <v>1.302</v>
+      </c>
+      <c r="I57" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A58" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="B58" s="19">
+        <v>0.75729343100000002</v>
+      </c>
+      <c r="C58" s="20">
+        <v>0.62880000000000003</v>
+      </c>
+      <c r="D58" s="19">
+        <v>0.75404573699999999</v>
+      </c>
+      <c r="E58" s="20">
+        <v>0.67320000000000002</v>
+      </c>
+      <c r="G58" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H58" s="7">
+        <v>1.2826</v>
+      </c>
+      <c r="I58" s="8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A59" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="B59" s="19">
+        <v>0.75314300000000001</v>
+      </c>
+      <c r="C59" s="20">
+        <v>0.62680000000000002</v>
+      </c>
+      <c r="D59" s="19">
+        <v>0.75450028199999997</v>
+      </c>
+      <c r="E59" s="20">
+        <v>0.77339999999999998</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A60" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="B60" s="19">
+        <v>0.71959300000000004</v>
+      </c>
+      <c r="C60" s="20">
+        <v>0.63049999999999995</v>
+      </c>
+      <c r="D60" s="19">
+        <v>0.764438171</v>
+      </c>
+      <c r="E60" s="20">
+        <v>0.65210000000000001</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A61" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="B61" s="19">
+        <v>0.71154700000000004</v>
+      </c>
+      <c r="C61" s="20">
+        <v>0.66500000000000004</v>
+      </c>
+      <c r="D61" s="19">
+        <v>0.73983342699999999</v>
+      </c>
+      <c r="E61" s="20">
+        <v>0.65269999999999995</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A62" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="B62" s="19">
+        <v>0.74073</v>
+      </c>
+      <c r="C62" s="20">
+        <v>0.69889999999999997</v>
+      </c>
+      <c r="D62" s="19">
+        <v>0.74663278799999999</v>
+      </c>
+      <c r="E62" s="20">
+        <v>0.63670000000000004</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A63" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="B63" s="19">
+        <v>0.66310899999999995</v>
+      </c>
+      <c r="C63" s="20">
+        <v>0.56589999999999996</v>
+      </c>
+      <c r="D63" s="19">
+        <v>0.73956239400000001</v>
+      </c>
+      <c r="E63" s="20">
+        <v>0.67210000000000003</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A64" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="B64" s="19">
+        <v>0.714032</v>
+      </c>
+      <c r="C64" s="20">
+        <v>0.67420000000000002</v>
+      </c>
+      <c r="D64" s="19">
+        <v>0.72080462999999995</v>
+      </c>
+      <c r="E64" s="20">
+        <v>0.6825</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A65" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="B65" s="19">
+        <v>0.722746</v>
+      </c>
+      <c r="C65" s="20">
+        <v>0.69520000000000004</v>
+      </c>
+      <c r="D65" s="19">
+        <v>0.71355354800000004</v>
+      </c>
+      <c r="E65" s="20">
+        <v>0.7097</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A66" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="B66" s="19">
+        <v>0.67821399999999998</v>
+      </c>
+      <c r="C66" s="20">
+        <v>0.64080000000000004</v>
+      </c>
+      <c r="D66" s="19">
+        <v>0.74588556399999995</v>
+      </c>
+      <c r="E66" s="20">
+        <v>0.69279999999999997</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A67" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="B67" s="19">
+        <v>0.73641999999999996</v>
+      </c>
+      <c r="C67" s="20">
+        <v>0.48930000000000001</v>
+      </c>
+      <c r="D67" s="19">
+        <v>0.718039714</v>
+      </c>
+      <c r="E67" s="20">
+        <v>0.71970000000000001</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A68" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="B68" s="21">
+        <v>0.74924712999999998</v>
+      </c>
+      <c r="C68" s="22">
+        <v>0.58399999999999996</v>
+      </c>
+      <c r="D68" s="21">
+        <v>0.694249012</v>
+      </c>
+      <c r="E68" s="22">
+        <v>0.38950000000000001</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="D54:E54"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
   <tableParts count="2">
-    <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
   </tableParts>
 </worksheet>
 </file>